--- a/backend/playernumber.xlsx
+++ b/backend/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="28">
   <si>
     <t>活动编号</t>
   </si>
@@ -1093,14 +1093,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D210" sqref="D210"/>
+      <selection pane="bottomRight" activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5425,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:7">
       <c r="A210" s="2">
         <v>283</v>
       </c>
@@ -5435,10 +5435,68 @@
       <c r="C210" s="7">
         <v>45884</v>
       </c>
+      <c r="D210" s="8">
+        <v>186701</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>284</v>
+      </c>
+      <c r="B211" s="7">
+        <v>45886</v>
+      </c>
+      <c r="C211" s="7">
+        <v>45894</v>
+      </c>
+      <c r="D211" s="8">
+        <v>201530</v>
+      </c>
+      <c r="E211" s="2">
+        <v>7</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>285</v>
+      </c>
+      <c r="B212" s="7">
+        <v>45896</v>
+      </c>
+      <c r="C212" s="7">
+        <v>45903</v>
+      </c>
+      <c r="D212" s="8">
+        <v>171776</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F208" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F211" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5461,11 +5519,11 @@
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9045,13 +9103,58 @@
       <c r="C171" s="7">
         <v>45884</v>
       </c>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="6:6">
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="6:6">
-      <c r="F173" s="2"/>
+      <c r="D171" s="3">
+        <v>44938</v>
+      </c>
+      <c r="E171" s="5">
+        <f>D171/B服!D210</f>
+        <v>0.240695015024022</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>284</v>
+      </c>
+      <c r="B172" s="7">
+        <v>45886</v>
+      </c>
+      <c r="C172" s="7">
+        <v>45894</v>
+      </c>
+      <c r="D172" s="3">
+        <v>47471</v>
+      </c>
+      <c r="E172" s="5">
+        <f>D172/B服!D211</f>
+        <v>0.235553019401578</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2">
+        <v>285</v>
+      </c>
+      <c r="B173" s="7">
+        <v>45896</v>
+      </c>
+      <c r="C173" s="7">
+        <v>45903</v>
+      </c>
+      <c r="D173" s="3">
+        <v>33851</v>
+      </c>
+      <c r="E173" s="5">
+        <f>D173/B服!D212</f>
+        <v>0.197064782041729</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174" spans="6:6">
       <c r="F174" s="2"/>

--- a/backend/playernumber.xlsx
+++ b/backend/playernumber.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="B服" sheetId="1" r:id="rId1"/>
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="29">
   <si>
     <t>活动编号</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>27.37%+</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
 </sst>
 </file>
@@ -1093,14 +1096,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D213" sqref="D213"/>
+      <selection pane="bottomRight" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3993,7 +3996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:7">
       <c r="A145" s="2">
         <v>218</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:7">
       <c r="A146" s="2">
         <v>219</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:7">
       <c r="A147" s="2">
         <v>220</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:7">
       <c r="A148" s="2">
         <v>221</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:7">
       <c r="A149" s="2">
         <v>222</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:7">
       <c r="A150" s="2">
         <v>223</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:7">
       <c r="A151" s="2">
         <v>224</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:7">
       <c r="A152" s="2">
         <v>225</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:7">
       <c r="A153" s="2">
         <v>226</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:7">
       <c r="A154" s="2">
         <v>228</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:7">
       <c r="A156" s="2">
         <v>230</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:7">
       <c r="A158" s="2">
         <v>232</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:7">
       <c r="A159" s="2">
         <v>233</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:7">
       <c r="A160" s="2">
         <v>234</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:7">
       <c r="A163" s="2">
         <v>237</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:7">
       <c r="A165" s="2">
         <v>240</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:7">
       <c r="A167" s="2">
         <v>241</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:7">
       <c r="A168" s="2">
         <v>242</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7">
       <c r="A169" s="2">
         <v>243</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7">
       <c r="A170" s="2">
         <v>244</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7">
       <c r="A171" s="2">
         <v>245</v>
       </c>
@@ -5494,9 +5497,192 @@
         <v>15</v>
       </c>
     </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>286</v>
+      </c>
+      <c r="B213" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C213" s="7">
+        <v>45911</v>
+      </c>
+      <c r="D213" s="8">
+        <v>175264</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>287</v>
+      </c>
+      <c r="B214" s="7">
+        <v>45913</v>
+      </c>
+      <c r="C214" s="7">
+        <v>45918</v>
+      </c>
+      <c r="D214" s="8">
+        <v>74185</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>288</v>
+      </c>
+      <c r="B215" s="7">
+        <v>45920</v>
+      </c>
+      <c r="C215" s="7">
+        <v>45925</v>
+      </c>
+      <c r="D215" s="8">
+        <v>144377</v>
+      </c>
+      <c r="E215" s="2">
+        <v>4</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>289</v>
+      </c>
+      <c r="B216" s="7">
+        <v>45926</v>
+      </c>
+      <c r="C216" s="7">
+        <v>45939</v>
+      </c>
+      <c r="D216" s="8">
+        <v>241572</v>
+      </c>
+      <c r="E216" s="2">
+        <v>7</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>290</v>
+      </c>
+      <c r="B217" s="7">
+        <v>45941</v>
+      </c>
+      <c r="C217" s="7">
+        <v>45949</v>
+      </c>
+      <c r="D217" s="8">
+        <v>195788</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>291</v>
+      </c>
+      <c r="B218" s="7">
+        <v>45951</v>
+      </c>
+      <c r="C218" s="7">
+        <v>45959</v>
+      </c>
+      <c r="D218" s="8">
+        <v>169419</v>
+      </c>
+      <c r="E218" s="2">
+        <v>3</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>292</v>
+      </c>
+      <c r="B219" s="7">
+        <v>45961</v>
+      </c>
+      <c r="C219" s="7">
+        <v>45969</v>
+      </c>
+      <c r="D219" s="8">
+        <v>156432</v>
+      </c>
+      <c r="E219" s="2">
+        <v>1</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>312</v>
+      </c>
+      <c r="B220" s="7">
+        <v>45971</v>
+      </c>
+      <c r="C220" s="7">
+        <v>45979</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F211" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F218" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5519,11 +5705,11 @@
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D174" sqref="D174"/>
+      <selection pane="bottomRight" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9156,61 +9342,200 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="6:6">
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="6:6">
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="6:6">
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="6:6">
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="6:6">
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="6:6">
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="6:6">
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="6:6">
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="6:6">
+    <row r="174" spans="1:6">
+      <c r="A174" s="2">
+        <v>286</v>
+      </c>
+      <c r="B174" s="7">
+        <v>45904</v>
+      </c>
+      <c r="C174" s="7">
+        <v>45911</v>
+      </c>
+      <c r="D174" s="3">
+        <v>26797</v>
+      </c>
+      <c r="E174" s="5">
+        <f>D174/B服!D213</f>
+        <v>0.152895061164871</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2">
+        <v>287</v>
+      </c>
+      <c r="B175" s="7">
+        <v>45913</v>
+      </c>
+      <c r="C175" s="7">
+        <v>45918</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>288</v>
+      </c>
+      <c r="B176" s="7">
+        <v>45920</v>
+      </c>
+      <c r="C176" s="7">
+        <v>45925</v>
+      </c>
+      <c r="D176" s="3">
+        <v>23190</v>
+      </c>
+      <c r="E176" s="5">
+        <f>D176/B服!D215</f>
+        <v>0.160621151568463</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>289</v>
+      </c>
+      <c r="B177" s="7">
+        <v>45926</v>
+      </c>
+      <c r="C177" s="7">
+        <v>45939</v>
+      </c>
+      <c r="D177" s="3">
+        <v>59693</v>
+      </c>
+      <c r="E177" s="5">
+        <f>D177/B服!D216</f>
+        <v>0.247102313181991</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2">
+        <v>290</v>
+      </c>
+      <c r="B178" s="7">
+        <v>45941</v>
+      </c>
+      <c r="C178" s="7">
+        <v>45949</v>
+      </c>
+      <c r="D178" s="3">
+        <v>36108</v>
+      </c>
+      <c r="E178" s="5">
+        <f>D178/B服!D217</f>
+        <v>0.184423968782561</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2">
+        <v>291</v>
+      </c>
+      <c r="B179" s="7">
+        <v>45951</v>
+      </c>
+      <c r="C179" s="7">
+        <v>45959</v>
+      </c>
+      <c r="D179" s="3">
+        <v>33924</v>
+      </c>
+      <c r="E179" s="5">
+        <f>D179/B服!D218</f>
+        <v>0.200237281532768</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>292</v>
+      </c>
+      <c r="B180" s="7">
+        <v>45961</v>
+      </c>
+      <c r="C180" s="7">
+        <v>45969</v>
+      </c>
+      <c r="D180" s="3">
+        <v>39138</v>
+      </c>
+      <c r="E180" s="5">
+        <f>D180/B服!D219</f>
+        <v>0.250191776618595</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>312</v>
+      </c>
+      <c r="B181" s="7">
+        <v>45971</v>
+      </c>
+      <c r="C181" s="7">
+        <v>45979</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>313</v>
+      </c>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="6:6">
+    <row r="183" spans="1:6">
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="6:6">
+    <row r="184" spans="1:6">
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="6:6">
+    <row r="185" spans="1:6">
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="6:6">
+    <row r="186" spans="1:6">
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="6:6">
+    <row r="187" spans="1:6">
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="6:6">
+    <row r="188" spans="1:6">
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="6:6">
+    <row r="189" spans="1:6">
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="6:6">
+    <row r="190" spans="1:6">
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="6:6">
+    <row r="191" spans="1:6">
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="6:6">
+    <row r="192" spans="1:6">
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="6:6">
@@ -9237,7 +9562,7 @@
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F179 F180:F181 F182:F198">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/playernumber.xlsx
+++ b/backend/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="29">
   <si>
     <t>活动编号</t>
   </si>
@@ -5668,11 +5668,17 @@
       <c r="C220" s="7">
         <v>45979</v>
       </c>
+      <c r="D220" s="8">
+        <v>160729</v>
+      </c>
       <c r="E220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5682,7 +5688,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F218" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F221" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5709,7 +5715,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D181" sqref="D181"/>
+      <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9498,6 +9504,13 @@
       <c r="C181" s="7">
         <v>45979</v>
       </c>
+      <c r="D181" s="3">
+        <v>36830</v>
+      </c>
+      <c r="E181" s="5">
+        <f>D181/B服!D220</f>
+        <v>0.229143465087196</v>
+      </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
       </c>
@@ -9562,7 +9575,7 @@
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F179 F180:F181 F182:F198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/playernumber.xlsx
+++ b/backend/playernumber.xlsx
@@ -11,7 +11,7 @@
     <sheet name="渠道" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B服!$A$1:$F$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="29">
   <si>
     <t>活动编号</t>
   </si>
@@ -1096,14 +1096,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D229" sqref="D229"/>
+      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B228" s="7">
         <v>46053</v>
@@ -5865,9 +5865,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>299</v>
+      </c>
+      <c r="B229" s="7">
+        <v>46064</v>
+      </c>
+      <c r="C229" s="7">
+        <v>46073</v>
+      </c>
+      <c r="D229" s="8">
+        <v>159812</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F226" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F228" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G193">
@@ -5894,7 +5917,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D190" sqref="D190"/>
+      <selection pane="bottomRight" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9843,7 +9866,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B189" s="7">
         <v>46053</v>
@@ -9863,8 +9886,25 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="A190" s="2">
+        <v>299</v>
+      </c>
+      <c r="B190" s="7">
+        <v>46064</v>
+      </c>
+      <c r="C190" s="7">
+        <v>46073</v>
+      </c>
+      <c r="D190" s="3">
+        <v>67034</v>
+      </c>
+      <c r="E190" s="5">
+        <f>D190/B服!D229</f>
+        <v>0.419455360048056</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2"/>
@@ -10051,7 +10091,7 @@
     <sortCondition ref="A2:A134"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F187 F188:F189 F190:F198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
       <formula1>"一般活动（协力）,挑战LIVE（CP）,竞演LIVE（对邦）,LIVE试炼（EX）,任务LIVE（协力）,团队LIVE FES （5V5）,组曲LIVE（3组曲）"</formula1>
     </dataValidation>
   </dataValidations>
